--- a/Daerah Istimewa Yogyakarta/06_DIY_Dead_24032020.xlsx
+++ b/Daerah Istimewa Yogyakarta/06_DIY_Dead_24032020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
   <si>
     <t>KABUPATEN</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>27/03/2020</t>
+  </si>
+  <si>
+    <t>28/03/2020</t>
+  </si>
+  <si>
+    <t>29/03/2020</t>
   </si>
   <si>
     <t>Bantul</t>
@@ -355,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -402,16 +408,11 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,7 +440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -735,7 +735,9 @@
     <col customWidth="1" min="9" max="9" width="11.0"/>
     <col customWidth="1" min="10" max="10" width="11.43"/>
     <col customWidth="1" min="11" max="11" width="11.86"/>
-    <col customWidth="1" min="12" max="14" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="11.71"/>
+    <col customWidth="1" min="13" max="13" width="13.0"/>
+    <col customWidth="1" min="14" max="14" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
@@ -769,19 +771,23 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>0.0</v>
@@ -808,15 +814,21 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
@@ -843,15 +855,21 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>0.0</v>
@@ -878,15 +896,21 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5">
         <v>0.0</v>
@@ -913,15 +937,21 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>0.0</v>
@@ -948,15 +978,21 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5">
         <v>0.0</v>
@@ -983,15 +1019,21 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>0.0</v>
@@ -1018,15 +1060,21 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
         <v>0.0</v>
@@ -1053,15 +1101,21 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>0.0</v>
@@ -1088,15 +1142,21 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>0.0</v>
@@ -1123,15 +1183,21 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>0.0</v>
@@ -1158,15 +1224,21 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
         <v>0.0</v>
@@ -1193,15 +1265,21 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5">
         <v>0.0</v>
@@ -1228,15 +1306,21 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>0.0</v>
@@ -1263,15 +1347,21 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5">
         <v>0.0</v>
@@ -1298,15 +1388,21 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>0.0</v>
@@ -1333,15 +1429,21 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5">
         <v>0.0</v>
@@ -1368,15 +1470,21 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>0.0</v>
@@ -1403,15 +1511,21 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5">
         <v>0.0</v>
@@ -1438,15 +1552,21 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5">
         <v>0.0</v>
@@ -1473,15 +1593,21 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5">
         <v>0.0</v>
@@ -1508,15 +1634,21 @@
         <v>0.0</v>
       </c>
       <c r="K22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
         <v>0.0</v>
@@ -1543,15 +1675,21 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5">
         <v>0.0</v>
@@ -1580,13 +1718,19 @@
       <c r="K24" s="5">
         <v>0.0</v>
       </c>
+      <c r="L24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5">
         <v>0.0</v>
@@ -1613,15 +1757,21 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5">
         <v>0.0</v>
@@ -1648,15 +1798,21 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5">
         <v>0.0</v>
@@ -1683,15 +1839,21 @@
         <v>0.0</v>
       </c>
       <c r="K27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
         <v>0.0</v>
@@ -1718,15 +1880,21 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5">
         <v>0.0</v>
@@ -1755,13 +1923,19 @@
       <c r="K29" s="5">
         <v>0.0</v>
       </c>
+      <c r="L29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5">
         <v>0.0</v>
@@ -1788,15 +1962,21 @@
         <v>0.0</v>
       </c>
       <c r="K30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5">
         <v>0.0</v>
@@ -1823,15 +2003,21 @@
         <v>0.0</v>
       </c>
       <c r="K31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5">
         <v>0.0</v>
@@ -1858,15 +2044,21 @@
         <v>0.0</v>
       </c>
       <c r="K32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5">
         <v>0.0</v>
@@ -1893,15 +2085,21 @@
         <v>0.0</v>
       </c>
       <c r="K33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5">
         <v>0.0</v>
@@ -1928,15 +2126,21 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5">
         <v>0.0</v>
@@ -1963,15 +2167,21 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5">
         <v>0.0</v>
@@ -1998,15 +2208,21 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5">
         <v>0.0</v>
@@ -2033,15 +2249,21 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5">
         <v>0.0</v>
@@ -2068,15 +2290,21 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5">
         <v>0.0</v>
@@ -2103,15 +2331,21 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5">
         <v>0.0</v>
@@ -2138,15 +2372,21 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5">
         <v>0.0</v>
@@ -2173,15 +2413,21 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5">
         <v>0.0</v>
@@ -2208,15 +2454,21 @@
         <v>0.0</v>
       </c>
       <c r="K42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5">
         <v>0.0</v>
@@ -2243,15 +2495,21 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5">
         <v>0.0</v>
@@ -2278,15 +2536,21 @@
         <v>0.0</v>
       </c>
       <c r="K44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5">
         <v>0.0</v>
@@ -2313,15 +2577,21 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5">
         <v>0.0</v>
@@ -2348,15 +2618,21 @@
         <v>0.0</v>
       </c>
       <c r="K46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5">
         <v>0.0</v>
@@ -2383,15 +2659,21 @@
         <v>0.0</v>
       </c>
       <c r="K47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5">
         <v>0.0</v>
@@ -2418,15 +2700,21 @@
         <v>0.0</v>
       </c>
       <c r="K48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="5">
         <v>0.0</v>
@@ -2453,15 +2741,21 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5">
         <v>0.0</v>
@@ -2488,15 +2782,21 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="5">
         <v>0.0</v>
@@ -2523,15 +2823,21 @@
         <v>0.0</v>
       </c>
       <c r="K51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5">
         <v>0.0</v>
@@ -2558,15 +2864,21 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="5">
         <v>0.0</v>
@@ -2593,15 +2905,21 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54" s="5">
         <v>0.0</v>
@@ -2628,15 +2946,21 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="5">
         <v>0.0</v>
@@ -2663,15 +2987,21 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" s="5">
         <v>0.0</v>
@@ -2698,15 +3028,21 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5">
         <v>0.0</v>
@@ -2733,15 +3069,21 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C58" s="5">
         <v>0.0</v>
@@ -2768,15 +3110,21 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" s="5">
         <v>0.0</v>
@@ -2803,15 +3151,21 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="5">
         <v>0.0</v>
@@ -2838,15 +3192,21 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" s="5">
         <v>0.0</v>
@@ -2873,15 +3233,21 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62" s="5">
         <v>0.0</v>
@@ -2908,15 +3274,21 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C63" s="5">
         <v>0.0</v>
@@ -2943,15 +3315,21 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C64" s="5">
         <v>0.0</v>
@@ -2978,15 +3356,21 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5">
         <v>0.0</v>
@@ -3013,15 +3397,21 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" s="5">
         <v>0.0</v>
@@ -3048,15 +3438,21 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C67" s="5">
         <v>0.0</v>
@@ -3083,15 +3479,21 @@
         <v>0.0</v>
       </c>
       <c r="K67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C68" s="5">
         <v>0.0</v>
@@ -3118,15 +3520,21 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" s="5">
         <v>0.0</v>
@@ -3153,15 +3561,21 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" s="5">
         <v>0.0</v>
@@ -3188,15 +3602,21 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C71" s="5">
         <v>0.0</v>
@@ -3223,15 +3643,21 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" s="5">
         <v>0.0</v>
@@ -3258,15 +3684,21 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C73" s="5">
         <v>0.0</v>
@@ -3293,15 +3725,21 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C74" s="5">
         <v>0.0</v>
@@ -3328,15 +3766,21 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C75" s="5">
         <v>0.0</v>
@@ -3363,15 +3807,21 @@
         <v>0.0</v>
       </c>
       <c r="K75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="5">
         <v>0.0</v>
@@ -3398,15 +3848,21 @@
         <v>0.0</v>
       </c>
       <c r="K76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C77" s="5">
         <v>0.0</v>
@@ -3433,15 +3889,21 @@
         <v>0.0</v>
       </c>
       <c r="K77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C78" s="5">
         <v>0.0</v>
@@ -3468,15 +3930,21 @@
         <v>0.0</v>
       </c>
       <c r="K78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C79" s="5">
         <v>0.0</v>
@@ -3503,12 +3971,18 @@
         <v>0.0</v>
       </c>
       <c r="K79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="5">
@@ -3536,6 +4010,12 @@
         <v>0.0</v>
       </c>
       <c r="K80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="5">
         <v>0.0</v>
       </c>
     </row>
@@ -3549,6 +4029,8 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="3"/>
@@ -3560,6 +4042,8 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="3"/>
@@ -3571,6 +4055,8 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="3"/>
@@ -3582,6 +4068,8 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="3"/>
@@ -3593,6 +4081,8 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="3"/>
@@ -3604,6 +4094,8 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="3"/>
@@ -3615,6 +4107,8 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="3"/>
@@ -3626,6 +4120,8 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="3"/>
@@ -3637,6 +4133,8 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="3"/>
@@ -3648,6 +4146,8 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="3"/>
@@ -3659,6 +4159,8 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="3"/>
@@ -3670,6 +4172,8 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="3"/>
@@ -3681,6 +4185,8 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="3"/>
@@ -3692,6 +4198,8 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="3"/>
@@ -3703,6 +4211,8 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="3"/>
@@ -3714,6 +4224,8 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="3"/>
@@ -3725,6 +4237,8 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="3"/>
@@ -3736,6 +4250,8 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="3"/>
@@ -3747,6 +4263,8 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="3"/>
@@ -3758,6 +4276,8 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="3"/>
@@ -3769,6 +4289,8 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="3"/>
@@ -3780,6 +4302,8 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="3"/>
@@ -3791,6 +4315,8 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="3"/>
@@ -3802,6 +4328,8 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="3"/>
@@ -3813,6 +4341,8 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="3"/>
@@ -3824,6 +4354,8 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="3"/>
@@ -3835,6 +4367,8 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="3"/>
@@ -3846,6 +4380,8 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="3"/>
@@ -3857,6 +4393,8 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="3"/>
@@ -3868,6 +4406,8 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="3"/>
@@ -3879,6 +4419,8 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="3"/>
@@ -3890,6 +4432,8 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="3"/>
@@ -3901,6 +4445,8 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="3"/>
@@ -3912,6 +4458,8 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="3"/>
@@ -3923,6 +4471,8 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="3"/>
@@ -3934,6 +4484,8 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="3"/>
@@ -3945,6 +4497,8 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="3"/>
@@ -3956,6 +4510,8 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="3"/>
@@ -3967,6 +4523,8 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="3"/>
@@ -3978,6 +4536,8 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="3"/>
@@ -3989,6 +4549,8 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="3"/>
@@ -4000,6 +4562,8 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="3"/>
@@ -4011,6 +4575,8 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="3"/>
@@ -4022,6 +4588,8 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="3"/>
@@ -4033,6 +4601,8 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="3"/>
@@ -4044,6 +4614,8 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="3"/>
@@ -4055,6 +4627,8 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="3"/>
@@ -4066,6 +4640,8 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="3"/>
@@ -4077,6 +4653,8 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="3"/>
@@ -4088,6 +4666,8 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="3"/>
@@ -4099,6 +4679,8 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="3"/>
@@ -4110,6 +4692,8 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="3"/>
@@ -4121,6 +4705,8 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="3"/>
@@ -4132,6 +4718,8 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="3"/>
@@ -4143,6 +4731,8 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="3"/>
@@ -4154,6 +4744,8 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="3"/>
@@ -4165,6 +4757,8 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="3"/>
@@ -4176,6 +4770,8 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="3"/>
@@ -4187,6 +4783,8 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="3"/>
@@ -4198,6 +4796,8 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="3"/>
@@ -4209,6 +4809,8 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="3"/>
@@ -4220,6 +4822,8 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="3"/>
@@ -4231,6 +4835,8 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="3"/>
@@ -4242,6 +4848,8 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="3"/>
@@ -4253,6 +4861,8 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="C146" s="3"/>
@@ -4264,6 +4874,8 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="3"/>
@@ -4275,6 +4887,8 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="3"/>
@@ -4286,6 +4900,8 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="3"/>
@@ -4297,6 +4913,8 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="3"/>
@@ -4308,6 +4926,8 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="3"/>
@@ -4319,6 +4939,8 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="3"/>
@@ -4330,6 +4952,8 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="3"/>
@@ -4341,6 +4965,8 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="3"/>
@@ -4352,6 +4978,8 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="3"/>
@@ -4363,6 +4991,8 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="3"/>
@@ -4374,6 +5004,8 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="3"/>
@@ -4385,6 +5017,8 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="3"/>
@@ -4396,6 +5030,8 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="3"/>
@@ -4407,6 +5043,8 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="3"/>
@@ -4418,6 +5056,8 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="3"/>
@@ -4429,6 +5069,8 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="3"/>
@@ -4440,6 +5082,8 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="C163" s="3"/>
@@ -4451,6 +5095,8 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="C164" s="3"/>
@@ -4462,6 +5108,8 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="C165" s="3"/>
@@ -4473,6 +5121,8 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="3"/>
@@ -4484,6 +5134,8 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="C167" s="3"/>
@@ -4495,6 +5147,8 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="C168" s="3"/>
@@ -4506,6 +5160,8 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="3"/>
@@ -4517,6 +5173,8 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="C170" s="3"/>
@@ -4528,6 +5186,8 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="C171" s="3"/>
@@ -4539,6 +5199,8 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="C172" s="3"/>
@@ -4550,6 +5212,8 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="C173" s="3"/>
@@ -4561,6 +5225,8 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="C174" s="3"/>
@@ -4572,6 +5238,8 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="3"/>
@@ -4583,6 +5251,8 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="C176" s="3"/>
@@ -4594,6 +5264,8 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="C177" s="3"/>
@@ -4605,6 +5277,8 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="3"/>
@@ -4616,6 +5290,8 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="C179" s="3"/>
@@ -4627,6 +5303,8 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="C180" s="3"/>
@@ -4638,6 +5316,8 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="3"/>
@@ -4649,6 +5329,8 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="C182" s="3"/>
@@ -4660,6 +5342,8 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="C183" s="3"/>
@@ -4671,6 +5355,8 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="C184" s="3"/>
@@ -4682,6 +5368,8 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="C185" s="3"/>
@@ -4693,6 +5381,8 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="C186" s="3"/>
@@ -4704,6 +5394,8 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="C187" s="3"/>
@@ -4715,6 +5407,8 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="C188" s="3"/>
@@ -4726,6 +5420,8 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="C189" s="3"/>
@@ -4737,6 +5433,8 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="C190" s="3"/>
@@ -4748,6 +5446,8 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="C191" s="3"/>
@@ -4759,6 +5459,8 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="C192" s="3"/>
@@ -4770,6 +5472,8 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="C193" s="3"/>
@@ -4781,6 +5485,8 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="C194" s="3"/>
@@ -4792,6 +5498,8 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="C195" s="3"/>
@@ -4803,6 +5511,8 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="C196" s="3"/>
@@ -4814,6 +5524,8 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="C197" s="3"/>
@@ -4825,6 +5537,8 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="C198" s="3"/>
@@ -4836,6 +5550,8 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="C199" s="3"/>
@@ -4847,6 +5563,8 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="C200" s="3"/>
@@ -4858,6 +5576,8 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="C201" s="3"/>
@@ -4869,6 +5589,8 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="C202" s="3"/>
@@ -4880,6 +5602,8 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="C203" s="3"/>
@@ -4891,6 +5615,8 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="C204" s="3"/>
@@ -4902,6 +5628,8 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="C205" s="3"/>
@@ -4913,6 +5641,8 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="C206" s="3"/>
@@ -4924,6 +5654,8 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="C207" s="3"/>
@@ -4935,6 +5667,8 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="C208" s="3"/>
@@ -4946,6 +5680,8 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="C209" s="3"/>
@@ -4957,6 +5693,8 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="3"/>
@@ -4968,6 +5706,8 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="C211" s="3"/>
@@ -4979,6 +5719,8 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="C212" s="3"/>
@@ -4990,6 +5732,8 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="C213" s="3"/>
@@ -5001,6 +5745,8 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="C214" s="3"/>
@@ -5012,6 +5758,8 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="C215" s="3"/>
@@ -5023,6 +5771,8 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="C216" s="3"/>
@@ -5034,6 +5784,8 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="C217" s="3"/>
@@ -5045,6 +5797,8 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="C218" s="3"/>
@@ -5056,6 +5810,8 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="C219" s="3"/>
@@ -5067,6 +5823,8 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="C220" s="3"/>
@@ -5078,6 +5836,8 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="C221" s="3"/>
@@ -5089,6 +5849,8 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="C222" s="3"/>
@@ -5100,6 +5862,8 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="C223" s="3"/>
@@ -5111,6 +5875,8 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="C224" s="3"/>
@@ -5122,6 +5888,8 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="C225" s="3"/>
@@ -5133,6 +5901,8 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="C226" s="3"/>
@@ -5144,6 +5914,8 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="C227" s="3"/>
@@ -5155,6 +5927,8 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="C228" s="3"/>
@@ -5166,6 +5940,8 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="C229" s="3"/>
@@ -5177,6 +5953,8 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="C230" s="3"/>
@@ -5188,6 +5966,8 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="C231" s="3"/>
@@ -5199,6 +5979,8 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="C232" s="3"/>
@@ -5210,6 +5992,8 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="C233" s="3"/>
@@ -5221,6 +6005,8 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="C234" s="3"/>
@@ -5232,6 +6018,8 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="C235" s="3"/>
@@ -5243,6 +6031,8 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="C236" s="3"/>
@@ -5254,6 +6044,8 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="C237" s="3"/>
@@ -5265,6 +6057,8 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="C238" s="3"/>
@@ -5276,6 +6070,8 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="C239" s="3"/>
@@ -5287,6 +6083,8 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="C240" s="3"/>
@@ -5298,6 +6096,8 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="C241" s="3"/>
@@ -5309,6 +6109,8 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="C242" s="3"/>
@@ -5320,6 +6122,8 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="C243" s="3"/>
@@ -5331,6 +6135,8 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="C244" s="3"/>
@@ -5342,6 +6148,8 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="C245" s="3"/>
@@ -5353,6 +6161,8 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="C246" s="3"/>
@@ -5364,6 +6174,8 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="C247" s="3"/>
@@ -5375,6 +6187,8 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="C248" s="3"/>
@@ -5386,6 +6200,8 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="C249" s="3"/>
@@ -5397,6 +6213,8 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="C250" s="3"/>
@@ -5408,6 +6226,8 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="C251" s="3"/>
@@ -5419,6 +6239,8 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="C252" s="3"/>
@@ -5430,6 +6252,8 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="C253" s="3"/>
@@ -5441,6 +6265,8 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="C254" s="3"/>
@@ -5452,6 +6278,8 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="C255" s="3"/>
@@ -5463,6 +6291,8 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="C256" s="3"/>
@@ -5474,6 +6304,8 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="C257" s="3"/>
@@ -5485,6 +6317,8 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="C258" s="3"/>
@@ -5496,6 +6330,8 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="C259" s="3"/>
@@ -5507,6 +6343,8 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="C260" s="3"/>
@@ -5518,6 +6356,8 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="C261" s="3"/>
@@ -5529,6 +6369,8 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="C262" s="3"/>
@@ -5540,6 +6382,8 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="C263" s="3"/>
@@ -5551,6 +6395,8 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="C264" s="3"/>
@@ -5562,6 +6408,8 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="C265" s="3"/>
@@ -5573,6 +6421,8 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="C266" s="3"/>
@@ -5584,6 +6434,8 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="C267" s="3"/>
@@ -5595,6 +6447,8 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="C268" s="3"/>
@@ -5606,6 +6460,8 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="C269" s="3"/>
@@ -5617,6 +6473,8 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="C270" s="3"/>
@@ -5628,6 +6486,8 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="C271" s="3"/>
@@ -5639,6 +6499,8 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="C272" s="3"/>
@@ -5650,6 +6512,8 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="C273" s="3"/>
@@ -5661,6 +6525,8 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="C274" s="3"/>
@@ -5672,6 +6538,8 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="C275" s="3"/>
@@ -5683,6 +6551,8 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="C276" s="3"/>
@@ -5694,6 +6564,8 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="C277" s="3"/>
@@ -5705,6 +6577,8 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="C278" s="3"/>
@@ -5716,6 +6590,8 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="C279" s="3"/>
@@ -5727,6 +6603,8 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="C280" s="3"/>
@@ -5738,6 +6616,8 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5773,12 +6653,13 @@
     <col customWidth="1" min="9" max="9" width="11.0"/>
     <col customWidth="1" min="10" max="10" width="11.43"/>
     <col customWidth="1" min="11" max="11" width="11.86"/>
-    <col customWidth="1" min="12" max="14" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="11.43"/>
+    <col customWidth="1" min="13" max="14" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5789,7 +6670,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -5828,16 +6709,18 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
@@ -5863,12 +6746,17 @@
       <c r="J3" s="5">
         <v>0.0</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>0.0</v>
@@ -5894,12 +6782,17 @@
       <c r="J4" s="5">
         <v>0.0</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>0.0</v>
@@ -5925,12 +6818,17 @@
       <c r="J5" s="5">
         <v>0.0</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>0.0</v>
@@ -5956,12 +6854,17 @@
       <c r="J6" s="5">
         <v>0.0</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>0.0</v>
@@ -5987,12 +6890,17 @@
       <c r="J7" s="5">
         <v>0.0</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <v>0.0</v>
@@ -6018,12 +6926,17 @@
       <c r="J8" s="5">
         <v>0.0</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>0.0</v>
@@ -6049,12 +6962,17 @@
       <c r="J9" s="5">
         <v>0.0</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
         <v>0.0</v>
@@ -6080,12 +6998,17 @@
       <c r="J10" s="5">
         <v>0.0</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5">
         <v>0.0</v>
@@ -6111,12 +7034,17 @@
       <c r="J11" s="5">
         <v>0.0</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5">
         <v>0.0</v>
@@ -6142,12 +7070,17 @@
       <c r="J12" s="5">
         <v>0.0</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>0.0</v>
@@ -6173,12 +7106,17 @@
       <c r="J13" s="5">
         <v>0.0</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>0.0</v>
@@ -6204,12 +7142,17 @@
       <c r="J14" s="5">
         <v>0.0</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <v>0.0</v>
@@ -6235,12 +7178,17 @@
       <c r="J15" s="5">
         <v>0.0</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <v>0.0</v>
@@ -6266,12 +7214,17 @@
       <c r="J16" s="5">
         <v>0.0</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <v>0.0</v>
@@ -6297,12 +7250,17 @@
       <c r="J17" s="5">
         <v>0.0</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
         <v>0.0</v>
@@ -6328,12 +7286,17 @@
       <c r="J18" s="5">
         <v>0.0</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5">
         <v>0.0</v>
@@ -6359,14 +7322,19 @@
       <c r="J19" s="5">
         <v>0.0</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
         <v>0.0</v>
@@ -6392,12 +7360,17 @@
       <c r="J20" s="5">
         <v>0.0</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <v>0.0</v>
@@ -6423,12 +7396,17 @@
       <c r="J21" s="5">
         <v>0.0</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5">
         <v>0.0</v>
@@ -6454,12 +7432,17 @@
       <c r="J22" s="5">
         <v>0.0</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5">
         <v>0.0</v>
@@ -6485,12 +7468,17 @@
       <c r="J23" s="5">
         <v>0.0</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5">
         <v>0.0</v>
@@ -6516,12 +7504,17 @@
       <c r="J24" s="5">
         <v>0.0</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5">
         <v>0.0</v>
@@ -6544,15 +7537,20 @@
       <c r="I25" s="5">
         <v>0.0</v>
       </c>
-      <c r="J25" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="5"/>
+      <c r="J25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5">
         <v>0.0</v>
@@ -6578,12 +7576,17 @@
       <c r="J26" s="5">
         <v>0.0</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <v>0.0</v>
@@ -6609,12 +7612,17 @@
       <c r="J27" s="5">
         <v>0.0</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5">
         <v>0.0</v>
@@ -6640,12 +7648,17 @@
       <c r="J28" s="5">
         <v>0.0</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5">
         <v>0.0</v>
@@ -6671,12 +7684,17 @@
       <c r="J29" s="5">
         <v>0.0</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5">
         <v>0.0</v>
@@ -6702,12 +7720,17 @@
       <c r="J30" s="5">
         <v>0.0</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5">
         <v>0.0</v>
@@ -6733,12 +7756,17 @@
       <c r="J31" s="5">
         <v>0.0</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5">
         <v>0.0</v>
@@ -6764,12 +7792,17 @@
       <c r="J32" s="5">
         <v>0.0</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5">
         <v>0.0</v>
@@ -6795,12 +7828,17 @@
       <c r="J33" s="5">
         <v>0.0</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5">
         <v>0.0</v>
@@ -6826,12 +7864,17 @@
       <c r="J34" s="5">
         <v>0.0</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5">
         <v>0.0</v>
@@ -6857,12 +7900,17 @@
       <c r="J35" s="5">
         <v>0.0</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5">
         <v>0.0</v>
@@ -6888,14 +7936,19 @@
       <c r="J36" s="5">
         <v>0.0</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5">
         <v>0.0</v>
@@ -6921,12 +7974,17 @@
       <c r="J37" s="5">
         <v>0.0</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5">
         <v>0.0</v>
@@ -6952,12 +8010,17 @@
       <c r="J38" s="5">
         <v>0.0</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" s="5">
         <v>0.0</v>
@@ -6983,12 +8046,17 @@
       <c r="J39" s="5">
         <v>0.0</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <v>0.0</v>
@@ -7014,12 +8082,17 @@
       <c r="J40" s="5">
         <v>0.0</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5">
         <v>0.0</v>
@@ -7045,12 +8118,17 @@
       <c r="J41" s="5">
         <v>0.0</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="5">
         <v>0.0</v>
@@ -7076,12 +8154,17 @@
       <c r="J42" s="5">
         <v>0.0</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5">
         <v>0.0</v>
@@ -7107,12 +8190,17 @@
       <c r="J43" s="5">
         <v>0.0</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="5">
         <v>0.0</v>
@@ -7135,15 +8223,20 @@
       <c r="I44" s="5">
         <v>0.0</v>
       </c>
-      <c r="J44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="5"/>
+      <c r="J44" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="5">
         <v>0.0</v>
@@ -7169,12 +8262,17 @@
       <c r="J45" s="5">
         <v>0.0</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="5">
         <v>0.0</v>
@@ -7200,12 +8298,17 @@
       <c r="J46" s="5">
         <v>0.0</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="5">
         <v>0.0</v>
@@ -7231,12 +8334,17 @@
       <c r="J47" s="5">
         <v>0.0</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5">
         <v>0.0</v>
@@ -7262,12 +8370,17 @@
       <c r="J48" s="5">
         <v>0.0</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5">
         <v>0.0</v>
@@ -7293,12 +8406,17 @@
       <c r="J49" s="5">
         <v>0.0</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="5">
         <v>0.0</v>
@@ -7324,12 +8442,17 @@
       <c r="J50" s="5">
         <v>0.0</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" s="5">
         <v>0.0</v>
@@ -7355,12 +8478,17 @@
       <c r="J51" s="5">
         <v>0.0</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" s="5">
         <v>0.0</v>
@@ -7386,12 +8514,17 @@
       <c r="J52" s="5">
         <v>0.0</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="5">
         <v>0.0</v>
@@ -7417,12 +8550,17 @@
       <c r="J53" s="5">
         <v>0.0</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="5">
         <v>0.0</v>
@@ -7448,14 +8586,19 @@
       <c r="J54" s="5">
         <v>0.0</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="5">
         <v>0.0</v>
@@ -7481,12 +8624,17 @@
       <c r="J55" s="5">
         <v>0.0</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="5">
         <v>0.0</v>
@@ -7512,12 +8660,17 @@
       <c r="J56" s="5">
         <v>0.0</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="5">
         <v>0.0</v>
@@ -7543,12 +8696,17 @@
       <c r="J57" s="5">
         <v>0.0</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="5">
         <v>0.0</v>
@@ -7574,12 +8732,17 @@
       <c r="J58" s="5">
         <v>0.0</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="5">
         <v>0.0</v>
@@ -7605,12 +8768,17 @@
       <c r="J59" s="5">
         <v>0.0</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="5">
         <v>0.0</v>
@@ -7636,12 +8804,17 @@
       <c r="J60" s="5">
         <v>0.0</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="5">
         <v>0.0</v>
@@ -7667,12 +8840,17 @@
       <c r="J61" s="5">
         <v>0.0</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="5">
         <v>0.0</v>
@@ -7698,12 +8876,17 @@
       <c r="J62" s="5">
         <v>0.0</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="5">
         <v>0.0</v>
@@ -7729,12 +8912,17 @@
       <c r="J63" s="5">
         <v>0.0</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="5">
         <v>0.0</v>
@@ -7760,12 +8948,17 @@
       <c r="J64" s="5">
         <v>0.0</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="5">
         <v>0.0</v>
@@ -7791,12 +8984,17 @@
       <c r="J65" s="5">
         <v>0.0</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="5">
         <v>0.0</v>
@@ -7822,14 +9020,19 @@
       <c r="J66" s="5">
         <v>0.0</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C67" s="5">
         <v>0.0</v>
@@ -7855,12 +9058,17 @@
       <c r="J67" s="5">
         <v>0.0</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5">
         <v>0.0</v>
@@ -7886,12 +9094,17 @@
       <c r="J68" s="5">
         <v>0.0</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5">
         <v>0.0</v>
@@ -7917,12 +9130,17 @@
       <c r="J69" s="5">
         <v>0.0</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C70" s="5">
         <v>0.0</v>
@@ -7948,12 +9166,17 @@
       <c r="J70" s="5">
         <v>0.0</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C71" s="5">
         <v>0.0</v>
@@ -7979,12 +9202,17 @@
       <c r="J71" s="5">
         <v>0.0</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C72" s="5">
         <v>0.0</v>
@@ -8010,12 +9238,17 @@
       <c r="J72" s="5">
         <v>0.0</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="5">
         <v>0.0</v>
@@ -8041,12 +9274,17 @@
       <c r="J73" s="5">
         <v>0.0</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C74" s="5">
         <v>0.0</v>
@@ -8072,12 +9310,17 @@
       <c r="J74" s="5">
         <v>0.0</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C75" s="5">
         <v>0.0</v>
@@ -8103,12 +9346,17 @@
       <c r="J75" s="5">
         <v>0.0</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C76" s="5">
         <v>0.0</v>
@@ -8134,12 +9382,17 @@
       <c r="J76" s="5">
         <v>0.0</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="5">
         <v>0.0</v>
@@ -8165,12 +9418,17 @@
       <c r="J77" s="5">
         <v>0.0</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C78" s="5">
         <v>0.0</v>
@@ -8196,12 +9454,17 @@
       <c r="J78" s="5">
         <v>0.0</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C79" s="5">
         <v>0.0</v>
@@ -8227,12 +9490,17 @@
       <c r="J79" s="5">
         <v>0.0</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="5">
         <v>0.0</v>
@@ -8258,11 +9526,16 @@
       <c r="J80" s="5">
         <v>0.0</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="6">
@@ -8289,7 +9562,12 @@
       <c r="J81" s="5">
         <v>0.0</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="3"/>
@@ -8301,6 +9579,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="3"/>
@@ -8312,6 +9591,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="3"/>
@@ -8323,6 +9603,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="3"/>
@@ -8334,6 +9615,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="3"/>
@@ -8345,6 +9627,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="3"/>
@@ -8356,6 +9639,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="3"/>
@@ -8367,6 +9651,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="3"/>
@@ -8378,6 +9663,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="3"/>
@@ -8389,6 +9675,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="3"/>
@@ -8400,6 +9687,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="3"/>
@@ -8411,6 +9699,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="3"/>
@@ -8422,6 +9711,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="3"/>
@@ -8433,6 +9723,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="3"/>
@@ -8444,6 +9735,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="3"/>
@@ -8455,6 +9747,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="3"/>
@@ -8466,6 +9759,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="3"/>
@@ -8477,6 +9771,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="3"/>
@@ -8488,6 +9783,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="3"/>
@@ -8499,6 +9795,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="3"/>
@@ -8510,6 +9807,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="3"/>
@@ -8521,6 +9819,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="3"/>
@@ -8532,6 +9831,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="3"/>
@@ -8543,6 +9843,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="3"/>
@@ -8554,6 +9855,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="3"/>
@@ -8565,6 +9867,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="3"/>
@@ -8576,6 +9879,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="3"/>
@@ -8587,6 +9891,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="3"/>
@@ -8598,6 +9903,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="3"/>
@@ -8609,6 +9915,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="3"/>
@@ -8620,6 +9927,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="3"/>
@@ -8631,6 +9939,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="3"/>
@@ -8642,6 +9951,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="3"/>
@@ -8653,6 +9963,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="3"/>
@@ -8664,6 +9975,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="3"/>
@@ -8675,6 +9987,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="3"/>
@@ -8686,6 +9999,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="3"/>
@@ -8697,6 +10011,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="3"/>
@@ -8708,6 +10023,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="3"/>
@@ -8719,6 +10035,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="3"/>
@@ -8730,6 +10047,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="3"/>
@@ -8741,6 +10059,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="3"/>
@@ -8752,6 +10071,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="3"/>
@@ -8763,6 +10083,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="3"/>
@@ -8774,6 +10095,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="3"/>
@@ -8785,6 +10107,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="3"/>
@@ -8796,6 +10119,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="3"/>
@@ -8807,6 +10131,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="3"/>
@@ -8818,6 +10143,7 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="3"/>
@@ -8829,6 +10155,7 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="3"/>
@@ -8840,6 +10167,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="3"/>
@@ -8851,6 +10179,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="3"/>
@@ -8862,6 +10191,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="3"/>
@@ -8873,6 +10203,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="3"/>
@@ -8884,6 +10215,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="3"/>
@@ -8895,6 +10227,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="3"/>
@@ -8906,6 +10239,7 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="3"/>
@@ -8917,6 +10251,7 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="3"/>
@@ -8928,6 +10263,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="3"/>
@@ -8939,6 +10275,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="3"/>
@@ -8950,6 +10287,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="3"/>
@@ -8961,6 +10299,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="3"/>
@@ -8972,6 +10311,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="3"/>
@@ -8983,6 +10323,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="3"/>
@@ -8994,6 +10335,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="C146" s="3"/>
@@ -9005,6 +10347,7 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="3"/>
@@ -9016,6 +10359,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="3"/>
@@ -9027,6 +10371,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="3"/>
@@ -9038,6 +10383,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="3"/>
@@ -9049,6 +10395,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="3"/>
@@ -9060,6 +10407,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="3"/>
@@ -9071,6 +10419,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="3"/>
@@ -9082,6 +10431,7 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="3"/>
@@ -9093,6 +10443,7 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="3"/>
@@ -9104,6 +10455,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="3"/>
@@ -9115,6 +10467,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="3"/>
@@ -9126,6 +10479,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="3"/>
@@ -9137,6 +10491,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="3"/>
@@ -9148,6 +10503,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="3"/>
@@ -9159,6 +10515,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="3"/>
@@ -9170,6 +10527,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="3"/>
@@ -9181,6 +10539,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="C163" s="3"/>
@@ -9192,6 +10551,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="C164" s="3"/>
@@ -9203,6 +10563,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="C165" s="3"/>
@@ -9214,6 +10575,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="3"/>
@@ -9225,6 +10587,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="C167" s="3"/>
@@ -9236,6 +10599,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="C168" s="3"/>
@@ -9247,6 +10611,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="3"/>
@@ -9258,6 +10623,7 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="C170" s="3"/>
@@ -9269,6 +10635,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="C171" s="3"/>
@@ -9280,6 +10647,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="C172" s="3"/>
@@ -9291,6 +10659,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="C173" s="3"/>
@@ -9302,6 +10671,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="C174" s="3"/>
@@ -9313,6 +10683,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="3"/>
@@ -9324,6 +10695,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="C176" s="3"/>
@@ -9335,6 +10707,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="C177" s="3"/>
@@ -9346,6 +10719,7 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="3"/>
@@ -9357,6 +10731,7 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="C179" s="3"/>
@@ -9368,6 +10743,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="C180" s="3"/>
@@ -9379,6 +10755,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="3"/>
@@ -9390,6 +10767,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="C182" s="3"/>
@@ -9401,6 +10779,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="C183" s="3"/>
@@ -9412,6 +10791,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="C184" s="3"/>
@@ -9423,6 +10803,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="C185" s="3"/>
@@ -9434,6 +10815,7 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="C186" s="3"/>
@@ -9445,6 +10827,7 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="C187" s="3"/>
@@ -9456,6 +10839,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="C188" s="3"/>
@@ -9467,6 +10851,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="C189" s="3"/>
@@ -9478,6 +10863,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="C190" s="3"/>
@@ -9489,6 +10875,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="C191" s="3"/>
@@ -9500,6 +10887,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="C192" s="3"/>
@@ -9511,6 +10899,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="C193" s="3"/>
@@ -9522,6 +10911,7 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="C194" s="3"/>
@@ -9533,6 +10923,7 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="C195" s="3"/>
@@ -9544,6 +10935,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="C196" s="3"/>
@@ -9555,6 +10947,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="C197" s="3"/>
@@ -9566,6 +10959,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="C198" s="3"/>
@@ -9577,6 +10971,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="C199" s="3"/>
@@ -9588,6 +10983,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="C200" s="3"/>
@@ -9599,6 +10995,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="C201" s="3"/>
@@ -9610,6 +11007,7 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="C202" s="3"/>
@@ -9621,6 +11019,7 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="C203" s="3"/>
@@ -9632,6 +11031,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="C204" s="3"/>
@@ -9643,6 +11043,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="C205" s="3"/>
@@ -9654,6 +11055,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="C206" s="3"/>
@@ -9665,6 +11067,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="C207" s="3"/>
@@ -9676,6 +11079,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="C208" s="3"/>
@@ -9687,6 +11091,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="C209" s="3"/>
@@ -9698,6 +11103,7 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="3"/>
@@ -9709,6 +11115,7 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="C211" s="3"/>
@@ -9720,6 +11127,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="C212" s="3"/>
@@ -9731,6 +11139,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="C213" s="3"/>
@@ -9742,6 +11151,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="C214" s="3"/>
@@ -9753,6 +11163,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="C215" s="3"/>
@@ -9764,6 +11175,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="C216" s="3"/>
@@ -9775,6 +11187,7 @@
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="C217" s="3"/>
@@ -9786,6 +11199,7 @@
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="C218" s="3"/>
@@ -9797,6 +11211,7 @@
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="C219" s="3"/>
@@ -9808,6 +11223,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="C220" s="3"/>
@@ -9819,6 +11235,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="C221" s="3"/>
@@ -9830,6 +11247,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="C222" s="3"/>
@@ -9841,6 +11259,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="C223" s="3"/>
@@ -9852,6 +11271,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="C224" s="3"/>
@@ -9863,6 +11283,7 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="C225" s="3"/>
@@ -9874,6 +11295,7 @@
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="C226" s="3"/>
@@ -9885,6 +11307,7 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="C227" s="3"/>
@@ -9896,6 +11319,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="C228" s="3"/>
@@ -9907,6 +11331,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="C229" s="3"/>
@@ -9918,6 +11343,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="C230" s="3"/>
@@ -9929,6 +11355,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="C231" s="3"/>
@@ -9940,6 +11367,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="C232" s="3"/>
@@ -9951,6 +11379,7 @@
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="C233" s="3"/>
@@ -9962,6 +11391,7 @@
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="C234" s="3"/>
@@ -9973,6 +11403,7 @@
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="C235" s="3"/>
@@ -9984,6 +11415,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="C236" s="3"/>
@@ -9995,6 +11427,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="C237" s="3"/>
@@ -10006,6 +11439,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="C238" s="3"/>
@@ -10017,6 +11451,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="C239" s="3"/>
@@ -10028,6 +11463,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="C240" s="3"/>
@@ -10039,6 +11475,7 @@
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="C241" s="3"/>
@@ -10050,6 +11487,7 @@
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="C242" s="3"/>
@@ -10061,6 +11499,7 @@
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="C243" s="3"/>
@@ -10072,6 +11511,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="C244" s="3"/>
@@ -10083,6 +11523,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="C245" s="3"/>
@@ -10094,6 +11535,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="C246" s="3"/>
@@ -10105,6 +11547,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="C247" s="3"/>
@@ -10116,6 +11559,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="C248" s="3"/>
@@ -10127,6 +11571,7 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="C249" s="3"/>
@@ -10138,6 +11583,7 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="C250" s="3"/>
@@ -10149,6 +11595,7 @@
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="C251" s="3"/>
@@ -10160,6 +11607,7 @@
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="C252" s="3"/>
@@ -10171,6 +11619,7 @@
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="C253" s="3"/>
@@ -10182,6 +11631,7 @@
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="C254" s="3"/>
@@ -10193,6 +11643,7 @@
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="C255" s="3"/>
@@ -10204,6 +11655,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="C256" s="3"/>
@@ -10215,6 +11667,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="C257" s="3"/>
@@ -10226,6 +11679,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="C258" s="3"/>
@@ -10237,6 +11691,7 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="C259" s="3"/>
@@ -10248,6 +11703,7 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="C260" s="3"/>
@@ -10259,6 +11715,7 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="C261" s="3"/>
@@ -10270,6 +11727,7 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="C262" s="3"/>
@@ -10281,6 +11739,7 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="C263" s="3"/>
@@ -10292,6 +11751,7 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="C264" s="3"/>
@@ -10303,6 +11763,7 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="C265" s="3"/>
@@ -10314,6 +11775,7 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="C266" s="3"/>
@@ -10325,6 +11787,7 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="C267" s="3"/>
@@ -10336,6 +11799,7 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="C268" s="3"/>
@@ -10347,6 +11811,7 @@
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="C269" s="3"/>
@@ -10358,6 +11823,7 @@
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="C270" s="3"/>
@@ -10369,6 +11835,7 @@
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="C271" s="3"/>
@@ -10380,6 +11847,7 @@
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="C272" s="3"/>
@@ -10391,6 +11859,7 @@
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="C273" s="3"/>
@@ -10402,6 +11871,7 @@
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="C274" s="3"/>
@@ -10413,6 +11883,7 @@
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="C275" s="3"/>
@@ -10424,6 +11895,7 @@
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="C276" s="3"/>
@@ -10435,6 +11907,7 @@
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="C277" s="3"/>
@@ -10446,6 +11919,7 @@
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="C278" s="3"/>
@@ -10457,6 +11931,7 @@
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="C279" s="3"/>
@@ -10468,6 +11943,7 @@
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="C280" s="3"/>
@@ -10479,6 +11955,7 @@
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="C281" s="3"/>
@@ -10490,6 +11967,7 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
